--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1029.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1029.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.334216685510048</v>
+        <v>1.241649031639099</v>
       </c>
       <c r="B1">
-        <v>3.656358830126094</v>
+        <v>1.311608195304871</v>
       </c>
       <c r="C1">
-        <v>3.080774632804963</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.348755801755549</v>
+        <v>2.026229858398438</v>
       </c>
       <c r="E1">
-        <v>1.265263803745413</v>
+        <v>0.9293590188026428</v>
       </c>
     </row>
   </sheetData>
